--- a/doc/学習プログラム仕様/設計書_アカウント名変更.xlsx
+++ b/doc/学習プログラム仕様/設計書_アカウント名変更.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8BEEC0-EF01-4876-8DAE-80C61D91CD9F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147790A6-FE45-49DD-B320-96D6B4B09993}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12015" windowHeight="3000" tabRatio="880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -431,16 +431,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>[I00002(アカウント名の更新)]</t>
-    <rPh sb="13" eb="14">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>1.</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -499,17 +489,7 @@
     <t xml:space="preserve"> FROM `m_user` `USR` </t>
   </si>
   <si>
-    <t xml:space="preserve">  INNER JOIN `m_account` `ACC` </t>
-  </si>
-  <si>
     <t xml:space="preserve">    ON `ACC`.`user_id` = `USR`.`id` AND `USR`.`user_kbn` = '2' AND `ACC`.`acc_status` IN('0', '1') </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WHERE `USR`.`id` = ?</t>
-  </si>
-  <si>
-    <t>,`USR`.`name` AS `name`</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>name</t>
@@ -571,10 +551,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>[E00003(ユーザーID)]</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>updated_id</t>
   </si>
   <si>
@@ -595,16 +571,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>メインメニュー画面へ遷移します。</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>メインメニュー画面に完了メッセージを表示します。</t>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
@@ -674,6 +640,29 @@
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,`USR`.`name` AS `name`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INNER JOIN `m_account` `ACC`</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WHERE `ACC`.`id` = ?</t>
+  </si>
+  <si>
+    <t>[E00003(ログインアカウントID)]</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>メインメニュー画面へ遷移します。(/main_menu/show_message/change_account_name)</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -2021,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24717B58-B430-4930-B995-117C7FEEAC96}">
-  <dimension ref="A1:AJ73"/>
+  <dimension ref="A1:AJ72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -2078,7 +2067,7 @@
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28" t="s">
@@ -2292,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
@@ -2304,10 +2293,10 @@
         <v>28</v>
       </c>
       <c r="N31" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O31" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P31" s="40"/>
       <c r="Q31" s="41"/>
@@ -2315,7 +2304,7 @@
         <v>40</v>
       </c>
       <c r="S31" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T31" s="43"/>
       <c r="U31" s="43"/>
@@ -2479,11 +2468,11 @@
       <c r="O37" s="62"/>
       <c r="P37" s="63"/>
       <c r="Q37" s="106" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R37" s="65"/>
       <c r="S37" s="65" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="T37" s="65"/>
       <c r="U37" s="65"/>
@@ -2514,7 +2503,7 @@
       <c r="O38" s="62"/>
       <c r="P38" s="63"/>
       <c r="Q38" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R38" s="65" t="s">
         <v>40</v>
@@ -2549,7 +2538,7 @@
       <c r="O39" s="62"/>
       <c r="P39" s="63"/>
       <c r="Q39" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R39" s="65" t="s">
         <v>41</v>
@@ -2584,7 +2573,7 @@
       <c r="O40" s="62"/>
       <c r="P40" s="63"/>
       <c r="Q40" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R40" s="65" t="s">
         <v>42</v>
@@ -2619,7 +2608,7 @@
       <c r="O41" s="62"/>
       <c r="P41" s="63"/>
       <c r="Q41" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R41" s="65" t="s">
         <v>43</v>
@@ -2654,7 +2643,7 @@
       <c r="O42" s="62"/>
       <c r="P42" s="63"/>
       <c r="Q42" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R42" s="65"/>
       <c r="S42" s="65" t="s">
@@ -2761,11 +2750,11 @@
       <c r="O45" s="62"/>
       <c r="P45" s="63"/>
       <c r="Q45" s="106" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R45" s="65"/>
       <c r="S45" s="65" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="T45" s="65"/>
       <c r="U45" s="65"/>
@@ -2796,10 +2785,10 @@
       <c r="O46" s="101"/>
       <c r="P46" s="102"/>
       <c r="Q46" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R46" s="103" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S46" s="103"/>
       <c r="T46" s="103"/>
@@ -2831,11 +2820,11 @@
       <c r="O47" s="101"/>
       <c r="P47" s="102"/>
       <c r="Q47" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R47" s="103"/>
       <c r="S47" s="103" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="T47" s="103"/>
       <c r="U47" s="103"/>
@@ -2866,11 +2855,11 @@
       <c r="O48" s="101"/>
       <c r="P48" s="102"/>
       <c r="Q48" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R48" s="103"/>
       <c r="S48" s="105" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T48" s="105"/>
       <c r="U48" s="103"/>
@@ -2901,12 +2890,12 @@
       <c r="O49" s="101"/>
       <c r="P49" s="102"/>
       <c r="Q49" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R49" s="103"/>
       <c r="S49" s="105"/>
       <c r="T49" s="105" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U49" s="103"/>
       <c r="V49" s="103"/>
@@ -2936,7 +2925,7 @@
       <c r="O50" s="101"/>
       <c r="P50" s="102"/>
       <c r="Q50" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R50" s="103"/>
       <c r="S50" s="105"/>
@@ -2946,7 +2935,7 @@
       <c r="W50" s="103"/>
       <c r="X50" s="103"/>
       <c r="Y50" s="103" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="Z50" s="103"/>
       <c r="AA50" s="103"/>
@@ -2971,11 +2960,11 @@
       <c r="O51" s="101"/>
       <c r="P51" s="102"/>
       <c r="Q51" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R51" s="103"/>
       <c r="S51" s="105" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T51" s="103"/>
       <c r="U51" s="103"/>
@@ -3006,7 +2995,7 @@
       <c r="O52" s="101"/>
       <c r="P52" s="102"/>
       <c r="Q52" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R52" s="103" t="s">
         <v>45</v>
@@ -3041,7 +3030,7 @@
       <c r="O53" s="101"/>
       <c r="P53" s="102"/>
       <c r="Q53" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R53" s="103"/>
       <c r="S53" s="103" t="s">
@@ -3076,7 +3065,7 @@
       <c r="O54" s="101"/>
       <c r="P54" s="102"/>
       <c r="Q54" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R54" s="103"/>
       <c r="S54" s="103"/>
@@ -3111,7 +3100,7 @@
       <c r="O55" s="81"/>
       <c r="P55" s="82"/>
       <c r="Q55" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R55" s="83"/>
       <c r="S55" s="83" t="s">
@@ -3183,7 +3172,7 @@
       <c r="Q57" s="64"/>
       <c r="R57" s="83"/>
       <c r="S57" s="83" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="T57" s="83"/>
       <c r="U57" s="83"/>
@@ -3280,11 +3269,11 @@
       <c r="O60" s="62"/>
       <c r="P60" s="63"/>
       <c r="Q60" s="106" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R60" s="65"/>
       <c r="S60" s="65" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T60" s="65"/>
       <c r="U60" s="65"/>
@@ -3315,10 +3304,10 @@
       <c r="O61" s="62"/>
       <c r="P61" s="63"/>
       <c r="Q61" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R61" s="65" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="S61" s="65"/>
       <c r="T61" s="65"/>
@@ -3350,7 +3339,7 @@
       <c r="O62" s="81"/>
       <c r="P62" s="82"/>
       <c r="Q62" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R62" s="83" t="s">
         <v>51</v>
@@ -3385,7 +3374,7 @@
       <c r="O63" s="81"/>
       <c r="P63" s="82"/>
       <c r="Q63" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R63" s="83"/>
       <c r="S63" s="83" t="s">
@@ -3420,7 +3409,7 @@
       <c r="O64" s="81"/>
       <c r="P64" s="82"/>
       <c r="Q64" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R64" s="83"/>
       <c r="S64" s="83" t="s">
@@ -3455,7 +3444,7 @@
       <c r="O65" s="81"/>
       <c r="P65" s="82"/>
       <c r="Q65" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R65" s="83"/>
       <c r="S65" s="83"/>
@@ -3490,7 +3479,7 @@
       <c r="O66" s="81"/>
       <c r="P66" s="82"/>
       <c r="Q66" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R66" s="83"/>
       <c r="S66" s="83"/>
@@ -3524,7 +3513,7 @@
       <c r="O67" s="81"/>
       <c r="P67" s="82"/>
       <c r="Q67" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R67" s="83"/>
       <c r="S67" s="83" t="s">
@@ -3559,10 +3548,10 @@
       <c r="O68" s="81"/>
       <c r="P68" s="82"/>
       <c r="Q68" s="106" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="R68" s="83" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="S68" s="83"/>
       <c r="T68" s="83"/>
@@ -3593,11 +3582,9 @@
       <c r="N69" s="64"/>
       <c r="O69" s="81"/>
       <c r="P69" s="82"/>
-      <c r="Q69" s="106" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q69" s="106"/>
       <c r="R69" s="83" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="S69" s="83"/>
       <c r="T69" s="83"/>
@@ -3628,11 +3615,9 @@
       <c r="N70" s="64"/>
       <c r="O70" s="81"/>
       <c r="P70" s="82"/>
-      <c r="Q70" s="106" t="s">
-        <v>101</v>
-      </c>
+      <c r="Q70" s="106"/>
       <c r="R70" s="83" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="S70" s="83"/>
       <c r="T70" s="83"/>
@@ -3651,97 +3636,62 @@
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="78"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="80"/>
-      <c r="N71" s="64"/>
-      <c r="O71" s="81"/>
-      <c r="P71" s="82"/>
-      <c r="Q71" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="R71" s="83"/>
-      <c r="S71" s="83"/>
-      <c r="T71" s="83"/>
-      <c r="U71" s="83"/>
-      <c r="V71" s="83"/>
-      <c r="W71" s="83"/>
-      <c r="X71" s="83"/>
-      <c r="Y71" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z71" s="83"/>
-      <c r="AA71" s="83"/>
-      <c r="AB71" s="83"/>
-      <c r="AC71" s="82"/>
+      <c r="E71" s="84"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="87"/>
+      <c r="I71" s="87"/>
+      <c r="J71" s="87"/>
+      <c r="K71" s="87"/>
+      <c r="L71" s="87"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="89"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="91"/>
+      <c r="Q71" s="89"/>
+      <c r="R71" s="92"/>
+      <c r="S71" s="92"/>
+      <c r="T71" s="92"/>
+      <c r="U71" s="92"/>
+      <c r="V71" s="92"/>
+      <c r="W71" s="92"/>
+      <c r="X71" s="92"/>
+      <c r="Y71" s="92"/>
+      <c r="Z71" s="92"/>
+      <c r="AA71" s="92"/>
+      <c r="AB71" s="92"/>
+      <c r="AC71" s="91"/>
     </row>
     <row r="72" spans="1:29" ht="13.5" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="86"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="87"/>
-      <c r="J72" s="87"/>
-      <c r="K72" s="87"/>
-      <c r="L72" s="87"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="89"/>
-      <c r="O72" s="90"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="89"/>
-      <c r="R72" s="92"/>
-      <c r="S72" s="92"/>
-      <c r="T72" s="92"/>
-      <c r="U72" s="92"/>
-      <c r="V72" s="92"/>
-      <c r="W72" s="92"/>
-      <c r="X72" s="92"/>
-      <c r="Y72" s="92"/>
-      <c r="Z72" s="92"/>
-      <c r="AA72" s="92"/>
-      <c r="AB72" s="92"/>
-      <c r="AC72" s="91"/>
-    </row>
-    <row r="73" spans="1:29" ht="13.5" customHeight="1">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="108"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
-      <c r="N73" s="81"/>
-      <c r="O73" s="81"/>
-      <c r="P73" s="81"/>
-      <c r="Q73" s="81"/>
-      <c r="R73" s="83"/>
-      <c r="S73" s="83"/>
-      <c r="T73" s="83"/>
-      <c r="U73" s="83"/>
-      <c r="V73" s="83"/>
-      <c r="W73" s="83"/>
-      <c r="X73" s="83"/>
-      <c r="Y73" s="83"/>
-      <c r="Z73" s="83"/>
-      <c r="AA73" s="83"/>
-      <c r="AB73" s="83"/>
-      <c r="AC73" s="81"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="81"/>
+      <c r="O72" s="81"/>
+      <c r="P72" s="81"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="83"/>
+      <c r="T72" s="83"/>
+      <c r="U72" s="83"/>
+      <c r="V72" s="83"/>
+      <c r="W72" s="83"/>
+      <c r="X72" s="83"/>
+      <c r="Y72" s="83"/>
+      <c r="Z72" s="83"/>
+      <c r="AA72" s="83"/>
+      <c r="AB72" s="83"/>
+      <c r="AC72" s="81"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11"/>
@@ -3756,7 +3706,7 @@
   <dimension ref="A1:AJ74"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="E8" sqref="E8:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" customHeight="1"/>
@@ -3801,7 +3751,7 @@
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="17"/>
     </row>
@@ -3845,7 +3795,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -3873,7 +3823,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -3901,7 +3851,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -3929,7 +3879,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -3957,7 +3907,7 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -3985,7 +3935,7 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -4013,7 +3963,7 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -4041,7 +3991,7 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -4069,7 +4019,7 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -4097,7 +4047,7 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -4125,7 +4075,7 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -4153,7 +4103,7 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="8" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -4181,7 +4131,7 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -4209,7 +4159,7 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="8" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -4296,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -4373,7 +4323,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="25"/>
       <c r="M27" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
@@ -4403,7 +4353,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30" s="17"/>
     </row>
@@ -4447,7 +4397,7 @@
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -4534,7 +4484,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -4849,7 +4799,7 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15" customHeight="1">
@@ -4863,7 +4813,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="21"/>
       <c r="H7" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -4918,7 +4868,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -4928,7 +4878,7 @@
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9" s="24"/>
       <c r="O9" s="24">
@@ -4952,7 +4902,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -4962,7 +4912,7 @@
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -4982,7 +4932,7 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -4992,7 +4942,7 @@
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
@@ -5042,7 +4992,7 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -5052,7 +5002,7 @@
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
       <c r="M13" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N13" s="24"/>
       <c r="O13" s="24"/>
